--- a/medicine/Enfance/Sarah_Rees_Brennan/Sarah_Rees_Brennan.xlsx
+++ b/medicine/Enfance/Sarah_Rees_Brennan/Sarah_Rees_Brennan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Rees Brennan, née le 21 septembre 1983 en Irlande, est une femme de lettres irlandaise vivant à Dublin[1],[2] connue principalement pour sa littérature d'enfance et de jeunesse fantastique ou de science-fiction en tant qu'autrice pour des franchises telles que The Mortal Instruments (The Bane Chronicles; plus de 8 volumes) ou Les Nouvelles Aventures de Sabrina[3],[4],[5],[6]. Son premier roman, La Nuit des démonsLa Nuit des démons, est sorti en juin 2009 chez Simon &amp; Schuster[7] et ses ouvrages sont depuis des best-sellers au Royaume-Uni[8],[9],[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Rees Brennan, née le 21 septembre 1983 en Irlande, est une femme de lettres irlandaise vivant à Dublin, connue principalement pour sa littérature d'enfance et de jeunesse fantastique ou de science-fiction en tant qu'autrice pour des franchises telles que The Mortal Instruments (The Bane Chronicles; plus de 8 volumes) ou Les Nouvelles Aventures de Sabrina. Son premier roman, La Nuit des démonsLa Nuit des démons, est sorti en juin 2009 chez Simon &amp; Schuster et ses ouvrages sont depuis des best-sellers au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Rees Brennan est née en Irlande et a vécu à New York après avoir obtenu une maîtrise en écriture créative de l'Université de Kingston à Londres[11] où elle écrivit son premier roman La Nuit des démonsLa Nuit des démons, la maison d'édition Simon &amp; Schuster[12] lui ayant alors offert un contrat pour trois livres qui impliquait un montant à six chiffres non divulgué. Elle a travaillé comme bibliothécaire dans le Surrey en Angleterre avant de déménager à Dublin où elle vit encore en 2020 et a un blog sur Livejournal qui compte des milliers d'abonnés[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Rees Brennan est née en Irlande et a vécu à New York après avoir obtenu une maîtrise en écriture créative de l'Université de Kingston à Londres où elle écrivit son premier roman La Nuit des démonsLa Nuit des démons, la maison d'édition Simon &amp; Schuster lui ayant alors offert un contrat pour trois livres qui impliquait un montant à six chiffres non divulgué. Elle a travaillé comme bibliothécaire dans le Surrey en Angleterre avant de déménager à Dublin où elle vit encore en 2020 et a un blog sur Livejournal qui compte des milliers d'abonnés.
 </t>
         </is>
       </c>
@@ -544,33 +558,246 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Lexique du démon
-La Nuit des démonsLa Nuit des démons, Albin Michel Jeunesse, 2010 ((en) The Demon's Lexicon, 2009), trad. Raphaële Eschenbrenner, 320 p.  (ISBN 978-2-226-20934-4)
+          <t>Série Lexique du démon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Nuit des démonsLa Nuit des démons, Albin Michel Jeunesse, 2010 ((en) The Demon's Lexicon, 2009), trad. Raphaële Eschenbrenner, 320 p.  (ISBN 978-2-226-20934-4)
 (en) The Demon's Covenant, 2010  (ISBN 978-1416963820)
-(en) The Demon's Surrender, 2011  (ISBN 978-1416963844)
-Série Lynburn Legacy
-(en) Unmade, 2012  (ISBN 9780375979965)
+(en) The Demon's Surrender, 2011  (ISBN 978-1416963844)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Lynburn Legacy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Unmade, 2012  (ISBN 9780375979965)
 (en) Untold, 2013  (ISBN 978-0375871047)
 (en) Unspoken, 2014  (ISBN 978-0375871030)
 Nouvelles
 (en) The Spring Before I Met You, 2012
 (en) The Summer Before I Met You, 2012
-(en) The Night After I Lost You, 2013
-Série Les Nouvelles Aventures de Sabrina
-L'Heure des sorcières, Hachette, 2019 ((en) Season of the Witch, 2019), trad. Charlotte Faraday, 270 p.  (ISBN 978-2-01-621237-0)
+(en) The Night After I Lost You, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Nouvelles Aventures de Sabrina</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Heure des sorcières, Hachette, 2019 ((en) Season of the Witch, 2019), trad. Charlotte Faraday, 270 p.  (ISBN 978-2-01-621237-0)
 La Fille du chaos, Hachette, 2020 ((en) Daughter of Chaos, 2019), trad. Charlotte Faraday, 360 p.  (ISBN 978-2-01-621238-7)
-(en) Path of Night, 2020
-Univers Fence
-(en) Fence: Striking Distance, 2020  (ISBN 978-0316456678)
-Univers Les Chroniques des Chasseurs d'Ombres
-(en) Les Chroniques de Bane (en), 2015  (ISBN 978-1442496002)Coécrit avec Cassandra Clare et Maureen Johnson (en).
-(en) Tales From the Shadowhunter Academy (en), 2016  (ISBN 978-1481443258)Coécrit avec Cassandra Clare, Maureen Johnson (en) et Robin Wasserman (en).
-Romans indépendants
-(en) Team Human (en), 2012  (ISBN 9780062089649)Coécrit avec Justine Larbalestier.
+(en) Path of Night, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Fence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Fence: Striking Distance, 2020  (ISBN 978-0316456678)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Les Chroniques des Chasseurs d'Ombres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Les Chroniques de Bane (en), 2015  (ISBN 978-1442496002)Coécrit avec Cassandra Clare et Maureen Johnson (en).
+(en) Tales From the Shadowhunter Academy (en), 2016  (ISBN 978-1481443258)Coécrit avec Cassandra Clare, Maureen Johnson (en) et Robin Wasserman (en).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Les Chroniques des Chasseurs d'Ombres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Team Human (en), 2012  (ISBN 9780062089649)Coécrit avec Justine Larbalestier.
 (en) Tell the Wind and Fire, 2016  (ISBN 978-1520004495)
-(en) In Other Lands, 2017  (ISBN 978-1618731203)
-Nouvelles
-(en) Undead is Very Hot Right Now, 2009Publiée dans The Eternal Kiss, éd. Trisha Telep  (ISBN 9780762437177)
+(en) In Other Lands, 2017  (ISBN 978-1618731203)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Undead is Very Hot Right Now, 2009Publiée dans The Eternal Kiss, éd. Trisha Telep  (ISBN 9780762437177)
 (en) L'espion qui n'a jamais grandi, 2010Publiée dans Kiss Me Deadly, éd. Trisha Telep  (ISBN 978-0762439492)
 (en) Queen of Atlantis, 2011Publiée le Subterranean Press Magazine: été 2011, éd. Gwenda Bond  (ISBN 978-1931520485)
 (en) Lets Get This Undead Show on the Road, 2011Publiée dans Enthralled: Paranormal Diversions, éd. Melissa Marr (en)  (ISBN 978-0007442461)
@@ -578,45 +805,84 @@
 (en) Treasure and Maidens, 2012Publiée dans Scheherazade's Facade, éd. Michael M. Jones  (ISBN 978-1613900581)
 (en) I Gave You My Love by the Light of The Moon, 2013Publiée dans Defy the Dark, éd. Saundra Mitchell  (ISBN 978-0062123534)
 (en) Beauty and the Chad, 2014Publiée dans Grim, éd. Christine Johnson  (ISBN 978-0373211081)
-(en) Wings in the Morning, 2014Publiée dans Monstrous Affections, éd. Kelly Link  (ISBN 978-0763664732)
-Sous le nom de Ava Corrigan
-Série Destin : La Saga Winx
-(en) The Fairies' Path, 2021
+(en) Wings in the Morning, 2014Publiée dans Monstrous Affections, éd. Kelly Link  (ISBN 978-0763664732)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le nom de Ava Corrigan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Destin : La Saga Winx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) The Fairies' Path, 2021
 (en) Lighting the Fire, 2022</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sarah_Rees_Brennan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Rees_Brennan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La liste non-exhaustive de ses prix inclut[14],[15] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La liste non-exhaustive de ses prix inclut, :
 Lexique du démon
-Nommé un des dix meilleurs livres de l'année par le prix ALA Best Fiction for Young Adults (en) 2010[16].
+Nommé un des dix meilleurs livres de l'année par le prix ALA Best Fiction for Young Adults (en) 2010.
 Sélectionnée pour la médaille Carnegie.
-Finaliste Cybils 2009[17].
+Finaliste Cybils 2009.
 Finaliste du Prix du Livre de Leeds.
 Classé 3 étoiles par les Kirkus Reviews et du School Library Journal.
 Unmade
